--- a/teaching/traditional_assets/database/data/slovakia/slovakia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/slovakia/slovakia_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.006925</v>
+        <v>-0.012775</v>
       </c>
       <c r="E2">
-        <v>-0.05359999999999999</v>
+        <v>-0.06684999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,85 +609,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>142.312</v>
+        <v>228.6</v>
       </c>
       <c r="L2">
-        <v>0.2627136791582056</v>
+        <v>0.2466285467687992</v>
       </c>
       <c r="M2">
-        <v>142.3</v>
+        <v>115.48</v>
       </c>
       <c r="N2">
-        <v>0.06223485676798601</v>
+        <v>0.026676522904202</v>
       </c>
       <c r="O2">
-        <v>0.9999156782281187</v>
+        <v>0.505161854768154</v>
       </c>
       <c r="P2">
-        <v>142.3</v>
+        <v>109.95</v>
       </c>
       <c r="Q2">
-        <v>0.06223485676798601</v>
+        <v>0.02539906211739703</v>
       </c>
       <c r="R2">
-        <v>0.9999156782281187</v>
+        <v>0.4809711286089239</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.04788708001385521</v>
       </c>
       <c r="U2">
-        <v>1804.3</v>
+        <v>410.8</v>
       </c>
       <c r="V2">
-        <v>0.7891099934397551</v>
+        <v>0.09489708701979717</v>
       </c>
       <c r="W2">
-        <v>0.04179834145956561</v>
+        <v>0.07727852947280323</v>
       </c>
       <c r="X2">
-        <v>0.07669965903984563</v>
+        <v>0.06659931376406587</v>
       </c>
       <c r="Y2">
-        <v>-0.03490131758028002</v>
+        <v>0.01067921570873735</v>
       </c>
       <c r="Z2">
-        <v>0.1275188323917137</v>
+        <v>0.1289008177115203</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04983376296134679</v>
+        <v>0.03933054708055763</v>
       </c>
       <c r="AC2">
-        <v>-0.04983376296134679</v>
+        <v>-0.03933054708055763</v>
       </c>
       <c r="AD2">
-        <v>4886.8</v>
+        <v>6644.799999999999</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4886.8</v>
+        <v>6644.799999999999</v>
       </c>
       <c r="AG2">
-        <v>3082.5</v>
+        <v>6233.999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.6812485188128198</v>
+        <v>0.6055204716731822</v>
       </c>
       <c r="AI2">
-        <v>0.7217036862003781</v>
+        <v>0.6697846947826788</v>
       </c>
       <c r="AJ2">
-        <v>0.5741292605699385</v>
+        <v>0.5901788334642949</v>
       </c>
       <c r="AK2">
-        <v>0.620608427791983</v>
+        <v>0.6555205047318611</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vseobecná úverová banka, a. s. (BSSE:1VUB02AE)</t>
+          <t>Tatra banka, a.s. (BSSE:1TAT01DE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0103</v>
+        <v>0.00235</v>
       </c>
       <c r="E3">
-        <v>-0.0244</v>
+        <v>-0.0267</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,85 +731,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>141.7</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>0.2859737638748738</v>
+        <v>0.277307366638442</v>
       </c>
       <c r="M3">
-        <v>142.3</v>
+        <v>12.65</v>
       </c>
       <c r="N3">
-        <v>0.06428732776146374</v>
+        <v>0.006494173212177217</v>
       </c>
       <c r="O3">
-        <v>1.00423429781228</v>
+        <v>0.09656488549618321</v>
       </c>
       <c r="P3">
-        <v>142.3</v>
+        <v>7.12</v>
       </c>
       <c r="Q3">
-        <v>0.06428732776146374</v>
+        <v>0.003655218440371682</v>
       </c>
       <c r="R3">
-        <v>1.00423429781228</v>
+        <v>0.05435114503816794</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.4371541501976285</v>
       </c>
       <c r="U3">
-        <v>1654.8</v>
+        <v>184.2</v>
       </c>
       <c r="V3">
-        <v>0.7475943076575559</v>
+        <v>0.09456337594332356</v>
       </c>
       <c r="W3">
-        <v>0.07826567246616956</v>
+        <v>0.09907729541672969</v>
       </c>
       <c r="X3">
-        <v>0.08493106800188187</v>
+        <v>0.05193194119664843</v>
       </c>
       <c r="Y3">
-        <v>-0.006665395535712312</v>
+        <v>0.04714535422008126</v>
       </c>
       <c r="Z3">
-        <v>0.1195877781532075</v>
+        <v>0.2029035306245168</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04590702750433362</v>
+        <v>0.03855355455440604</v>
       </c>
       <c r="AC3">
-        <v>-0.04590702750433362</v>
+        <v>-0.03855355455440604</v>
       </c>
       <c r="AD3">
-        <v>4791.5</v>
+        <v>1492.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4791.5</v>
+        <v>1492.1</v>
       </c>
       <c r="AG3">
-        <v>3136.7</v>
+        <v>1307.9</v>
       </c>
       <c r="AH3">
-        <v>0.68401142041399</v>
+        <v>0.43375</v>
       </c>
       <c r="AI3">
-        <v>0.7314485474834751</v>
+        <v>0.5093882288679503</v>
       </c>
       <c r="AJ3">
-        <v>0.5862771485178124</v>
+        <v>0.4017138644879906</v>
       </c>
       <c r="AK3">
-        <v>0.6406789354357728</v>
+        <v>0.4764663023679417</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OTP Banka Slovensko, a.s. (BSSE:1OTP005E)</t>
+          <t>Vseobecná úverová banka, a. s. (BSSE:1VUB02AE)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.00355</v>
+        <v>-0.0279</v>
       </c>
       <c r="E4">
-        <v>-0.0828</v>
+        <v>-0.107</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,82 +853,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.612</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="L4">
-        <v>0.01324675324675325</v>
+        <v>0.2147414741474147</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>102.83</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.0431877362452751</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>1.053586065573771</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>102.83</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.0431877362452751</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>1.053586065573771</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>149.5</v>
+        <v>226.6</v>
       </c>
       <c r="V4">
-        <v>2.047945205479452</v>
+        <v>0.09517009659806804</v>
       </c>
       <c r="W4">
-        <v>0.005331010452961672</v>
+        <v>0.05547976352887676</v>
       </c>
       <c r="X4">
-        <v>0.06846825007780938</v>
+        <v>0.08126668633148332</v>
       </c>
       <c r="Y4">
-        <v>-0.06313723962484771</v>
+        <v>-0.02578692280260656</v>
       </c>
       <c r="Z4">
-        <v>0.4416826003824094</v>
+        <v>0.09346851478632831</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05376049841835996</v>
+        <v>0.04010753960670922</v>
       </c>
       <c r="AC4">
-        <v>-0.05376049841835996</v>
+        <v>-0.04010753960670922</v>
       </c>
       <c r="AD4">
-        <v>95.3</v>
+        <v>5152.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>95.3</v>
+        <v>5152.7</v>
       </c>
       <c r="AG4">
-        <v>-54.2</v>
+        <v>4926.099999999999</v>
       </c>
       <c r="AH4">
-        <v>0.5662507427213309</v>
+        <v>0.6839534358947131</v>
       </c>
       <c r="AI4">
-        <v>0.4321995464852608</v>
+        <v>0.736984381257509</v>
       </c>
       <c r="AJ4">
-        <v>-2.882978723404256</v>
+        <v>0.6741525365740171</v>
       </c>
       <c r="AK4">
-        <v>-0.7633802816901409</v>
+        <v>0.7281744271988173</v>
       </c>
       <c r="AL4">
         <v>0</v>
